--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N2">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O2">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P2">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q2">
-        <v>19.39346887520334</v>
+        <v>12.40457499719667</v>
       </c>
       <c r="R2">
-        <v>174.54121987683</v>
+        <v>111.64117497477</v>
       </c>
       <c r="S2">
-        <v>0.00588893897951425</v>
+        <v>0.003131725185513615</v>
       </c>
       <c r="T2">
-        <v>0.006478709276527629</v>
+        <v>0.003271979859052207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P3">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q3">
-        <v>20.22940193024</v>
+        <v>13.649829448192</v>
       </c>
       <c r="R3">
-        <v>182.06461737216</v>
+        <v>122.848465033728</v>
       </c>
       <c r="S3">
-        <v>0.00614277488601183</v>
+        <v>0.003446108767977048</v>
       </c>
       <c r="T3">
-        <v>0.006757966549843326</v>
+        <v>0.003600443146506443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N4">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O4">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P4">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q4">
-        <v>46.99902646841667</v>
+        <v>51.27095815723</v>
       </c>
       <c r="R4">
-        <v>422.99123821575</v>
+        <v>461.43862341507</v>
       </c>
       <c r="S4">
-        <v>0.01427152619008594</v>
+        <v>0.01294413964063248</v>
       </c>
       <c r="T4">
-        <v>0.01570080271498134</v>
+        <v>0.01352384442696963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N5">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O5">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P5">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q5">
-        <v>4.16661314442</v>
+        <v>2.867302282411</v>
       </c>
       <c r="R5">
-        <v>24.99967886652</v>
+        <v>17.203813694466</v>
       </c>
       <c r="S5">
-        <v>0.00126521617749904</v>
+        <v>0.0007238944320411234</v>
       </c>
       <c r="T5">
-        <v>0.0009279507241729522</v>
+        <v>0.0005042094184327645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N6">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O6">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P6">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q6">
-        <v>42.07821249741333</v>
+        <v>49.55381915590401</v>
       </c>
       <c r="R6">
-        <v>378.70391247672</v>
+        <v>445.984372403136</v>
       </c>
       <c r="S6">
-        <v>0.01277729256992983</v>
+        <v>0.01251062156696243</v>
       </c>
       <c r="T6">
-        <v>0.01405692335914476</v>
+        <v>0.01307091119638322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N7">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O7">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P7">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q7">
-        <v>328.4500690329822</v>
+        <v>311.3519338006889</v>
       </c>
       <c r="R7">
-        <v>2956.05062129684</v>
+        <v>2802.1674042062</v>
       </c>
       <c r="S7">
-        <v>0.09973576294159471</v>
+        <v>0.0786055703530627</v>
       </c>
       <c r="T7">
-        <v>0.109724182033309</v>
+        <v>0.08212592988498489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P8">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q8">
         <v>342.6075295368533</v>
@@ -948,10 +948,10 @@
         <v>3083.46776583168</v>
       </c>
       <c r="S8">
-        <v>0.1040347576984729</v>
+        <v>0.08649652480956758</v>
       </c>
       <c r="T8">
-        <v>0.1144537160475038</v>
+        <v>0.09037028164669536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N9">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O9">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P9">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q9">
-        <v>795.9810381201111</v>
+        <v>1286.889069047133</v>
       </c>
       <c r="R9">
-        <v>7163.829343081</v>
+        <v>11582.0016214242</v>
       </c>
       <c r="S9">
-        <v>0.2417042455119104</v>
+        <v>0.3248948802685997</v>
       </c>
       <c r="T9">
-        <v>0.265910640782916</v>
+        <v>0.339445334943619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N10">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O10">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P10">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q10">
-        <v>70.56625009816001</v>
+        <v>71.96861727399333</v>
       </c>
       <c r="R10">
-        <v>423.39750058896</v>
+        <v>431.81170364396</v>
       </c>
       <c r="S10">
-        <v>0.02142784993831325</v>
+        <v>0.01816958108879107</v>
       </c>
       <c r="T10">
-        <v>0.01571588256722414</v>
+        <v>0.01265553858193768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N11">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O11">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P11">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q11">
-        <v>712.6415541487289</v>
+        <v>1243.789281364907</v>
       </c>
       <c r="R11">
-        <v>6413.77398733856</v>
+        <v>11194.10353228416</v>
       </c>
       <c r="S11">
-        <v>0.2163977292383214</v>
+        <v>0.3140136779214639</v>
       </c>
       <c r="T11">
-        <v>0.2380697067354346</v>
+        <v>0.3280768166947035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N12">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O12">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P12">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q12">
-        <v>12.65525271295044</v>
+        <v>9.942804593533333</v>
       </c>
       <c r="R12">
-        <v>113.897274416554</v>
+        <v>89.48524134180001</v>
       </c>
       <c r="S12">
-        <v>0.00384284067365519</v>
+        <v>0.002510213495202033</v>
       </c>
       <c r="T12">
-        <v>0.004227696637244009</v>
+        <v>0.00262263369602626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P13">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q13">
-        <v>13.20074275037866</v>
+        <v>10.94093001728</v>
       </c>
       <c r="R13">
-        <v>118.806684753408</v>
+        <v>98.46837015551999</v>
       </c>
       <c r="S13">
-        <v>0.004008481878177145</v>
+        <v>0.002762205564946889</v>
       </c>
       <c r="T13">
-        <v>0.004409926613143695</v>
+        <v>0.002885911259670729</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N14">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O14">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P14">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q14">
-        <v>30.66932280387222</v>
+        <v>41.0958955382</v>
       </c>
       <c r="R14">
-        <v>276.02390523485</v>
+        <v>369.8630598438</v>
       </c>
       <c r="S14">
-        <v>0.009312917235036671</v>
+        <v>0.01037528904515495</v>
       </c>
       <c r="T14">
-        <v>0.01024559491821104</v>
+        <v>0.01083994756137085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N15">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O15">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P15">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q15">
-        <v>2.718932989196</v>
+        <v>2.29826707574</v>
       </c>
       <c r="R15">
-        <v>16.313597935176</v>
+        <v>13.78960245444</v>
       </c>
       <c r="S15">
-        <v>0.0008256197261974179</v>
+        <v>0.000580232767810124</v>
       </c>
       <c r="T15">
-        <v>0.0006055363790327045</v>
+        <v>0.0004041457061470479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N16">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O16">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P16">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q16">
-        <v>27.45823433088177</v>
+        <v>39.71953419136</v>
       </c>
       <c r="R16">
-        <v>247.124108977936</v>
+        <v>357.47580772224</v>
       </c>
       <c r="S16">
-        <v>0.00833785164997052</v>
+        <v>0.01002780551627626</v>
       </c>
       <c r="T16">
-        <v>0.009172877664191885</v>
+        <v>0.01047690194258454</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N17">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O17">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P17">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q17">
-        <v>117.4259855711302</v>
+        <v>40.628658007045</v>
       </c>
       <c r="R17">
-        <v>704.555913426781</v>
+        <v>243.77194804227</v>
       </c>
       <c r="S17">
-        <v>0.03565707961208956</v>
+        <v>0.01025732776520251</v>
       </c>
       <c r="T17">
-        <v>0.0261520627355053</v>
+        <v>0.007144468914596103</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O18">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P18">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q18">
-        <v>122.487496922752</v>
+        <v>44.707235244288</v>
       </c>
       <c r="R18">
-        <v>734.9249815365118</v>
+        <v>268.243411465728</v>
       </c>
       <c r="S18">
-        <v>0.03719403680554612</v>
+        <v>0.01128702713481598</v>
       </c>
       <c r="T18">
-        <v>0.02727931716526612</v>
+        <v>0.007861678631003894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N19">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O19">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P19">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q19">
-        <v>284.5755465126708</v>
+        <v>167.927577134595</v>
       </c>
       <c r="R19">
-        <v>1707.453279076025</v>
+        <v>1007.56546280757</v>
       </c>
       <c r="S19">
-        <v>0.08641301044486127</v>
+        <v>0.04239589206188372</v>
       </c>
       <c r="T19">
-        <v>0.0633781143857803</v>
+        <v>0.02952973131757185</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N20">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O20">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P20">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q20">
-        <v>25.228527094641</v>
+        <v>9.391264421491501</v>
       </c>
       <c r="R20">
-        <v>100.914108378564</v>
+        <v>37.565057685966</v>
       </c>
       <c r="S20">
-        <v>0.007660788152929401</v>
+        <v>0.002370968720754197</v>
       </c>
       <c r="T20">
-        <v>0.003745780913792656</v>
+        <v>0.001100956812577369</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N21">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O21">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P21">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q21">
-        <v>254.7803905209506</v>
+        <v>162.303438197856</v>
       </c>
       <c r="R21">
-        <v>1528.682343125704</v>
+        <v>973.8206291871361</v>
       </c>
       <c r="S21">
-        <v>0.07736553901778224</v>
+        <v>0.04097599193963094</v>
       </c>
       <c r="T21">
-        <v>0.05674240436878722</v>
+        <v>0.02854073764227168</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N22">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O22">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P22">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q22">
-        <v>2.757066394867334</v>
+        <v>4.3626377381</v>
       </c>
       <c r="R22">
-        <v>24.813597553806</v>
+        <v>39.2637396429</v>
       </c>
       <c r="S22">
-        <v>0.0008371991553611542</v>
+        <v>0.001101414799198485</v>
       </c>
       <c r="T22">
-        <v>0.0009210436638938995</v>
+        <v>0.001150741787979853</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O23">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P23">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q23">
-        <v>2.875906554368</v>
+        <v>4.800588579839999</v>
       </c>
       <c r="R23">
-        <v>25.883158989312</v>
+        <v>43.20529721856</v>
       </c>
       <c r="S23">
-        <v>0.0008732856570653434</v>
+        <v>0.0012119822052889</v>
       </c>
       <c r="T23">
-        <v>0.0009607441862055852</v>
+        <v>0.001266260968101065</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N24">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O24">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P24">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q24">
-        <v>6.681601796016666</v>
+        <v>18.0317839971</v>
       </c>
       <c r="R24">
-        <v>60.13441616415</v>
+        <v>162.2860559739</v>
       </c>
       <c r="S24">
-        <v>0.002028907026141419</v>
+        <v>0.004552400392292467</v>
       </c>
       <c r="T24">
-        <v>0.002232099673167057</v>
+        <v>0.004756280168778416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N25">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O25">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P25">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q25">
-        <v>0.5923452454440001</v>
+        <v>1.00841835747</v>
       </c>
       <c r="R25">
-        <v>3.554071472664</v>
+        <v>6.05051014482</v>
       </c>
       <c r="S25">
-        <v>0.0001798690594071729</v>
+        <v>0.0002545906787082002</v>
       </c>
       <c r="T25">
-        <v>0.0001319218224533969</v>
+        <v>0.0001773283677399139</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N26">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O26">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P26">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q26">
-        <v>5.982035827589334</v>
+        <v>17.42787331008</v>
       </c>
       <c r="R26">
-        <v>53.838322448304</v>
+        <v>156.85085979072</v>
       </c>
       <c r="S26">
-        <v>0.001816479774125621</v>
+        <v>0.004399933878222555</v>
       </c>
       <c r="T26">
-        <v>0.001998398082267647</v>
+        <v>0.004596985424295645</v>
       </c>
     </row>
   </sheetData>
